--- a/GATEWAY/A1#111#HELIOSISTEMI/HelioSistemiSrls/Lido_fse/0.9/report-checklist.xlsx
+++ b/GATEWAY/A1#111#HELIOSISTEMI/HelioSistemiSrls/Lido_fse/0.9/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="512">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3906,11 +3906,11 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H65" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
-      <selection pane="bottomRight" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="K188" activeCellId="0" sqref="K188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11217,7 +11217,9 @@
       <c r="I188" s="39" t="s">
         <v>460</v>
       </c>
-      <c r="J188" s="34"/>
+      <c r="J188" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="K188" s="34"/>
       <c r="L188" s="34"/>
       <c r="M188" s="34"/>
@@ -11260,7 +11262,9 @@
       <c r="I189" s="39" t="s">
         <v>465</v>
       </c>
-      <c r="J189" s="34"/>
+      <c r="J189" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="K189" s="34"/>
       <c r="L189" s="34"/>
       <c r="M189" s="34"/>

--- a/GATEWAY/A1#111#HELIOSISTEMI/HelioSistemiSrls/Lido_fse/0.9/report-checklist.xlsx
+++ b/GATEWAY/A1#111#HELIOSISTEMI/HelioSistemiSrls/Lido_fse/0.9/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="512">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1936,12 +1936,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2039,6 +2040,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2235,7 +2242,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2396,11 +2403,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3906,11 +3921,11 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
-      <selection pane="bottomRight" activeCell="K188" activeCellId="0" sqref="K188"/>
+      <selection pane="bottomRight" activeCell="H54" activeCellId="0" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4361,7 +4376,9 @@
       <c r="E14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="33"/>
+      <c r="F14" s="33" t="n">
+        <v>45918</v>
+      </c>
       <c r="G14" s="33" t="s">
         <v>61</v>
       </c>
@@ -4379,7 +4396,9 @@
       <c r="M14" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="34"/>
+      <c r="N14" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O14" s="34" t="s">
         <v>65</v>
       </c>
@@ -4677,7 +4696,9 @@
       <c r="E22" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="33"/>
+      <c r="F22" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G22" s="33" t="s">
         <v>81</v>
       </c>
@@ -4695,7 +4716,9 @@
       <c r="M22" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N22" s="34"/>
+      <c r="N22" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O22" s="34" t="s">
         <v>65</v>
       </c>
@@ -5003,13 +5026,17 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="39"/>
-      <c r="J30" s="34"/>
+      <c r="J30" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
       <c r="M30" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N30" s="34"/>
+      <c r="N30" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O30" s="34" t="s">
         <v>92</v>
       </c>
@@ -5872,7 +5899,9 @@
       <c r="E53" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="F53" s="33"/>
+      <c r="F53" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G53" s="33" t="s">
         <v>136</v>
       </c>
@@ -5890,7 +5919,9 @@
       <c r="M53" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N53" s="34"/>
+      <c r="N53" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O53" s="34" t="s">
         <v>139</v>
       </c>
@@ -5929,7 +5960,9 @@
       <c r="E54" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="F54" s="33"/>
+      <c r="F54" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G54" s="33" t="s">
         <v>143</v>
       </c>
@@ -5947,7 +5980,9 @@
       <c r="M54" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N54" s="34"/>
+      <c r="N54" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O54" s="34" t="s">
         <v>139</v>
       </c>
@@ -5986,7 +6021,9 @@
       <c r="E55" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="F55" s="33"/>
+      <c r="F55" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G55" s="33" t="s">
         <v>148</v>
       </c>
@@ -6004,7 +6041,9 @@
       <c r="M55" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N55" s="34"/>
+      <c r="N55" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O55" s="34" t="s">
         <v>139</v>
       </c>
@@ -6043,7 +6082,9 @@
       <c r="E56" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="F56" s="33"/>
+      <c r="F56" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G56" s="33" t="s">
         <v>153</v>
       </c>
@@ -6061,7 +6102,9 @@
       <c r="M56" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N56" s="34"/>
+      <c r="N56" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O56" s="34" t="s">
         <v>139</v>
       </c>
@@ -6100,7 +6143,9 @@
       <c r="E57" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="F57" s="33"/>
+      <c r="F57" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G57" s="33" t="s">
         <v>158</v>
       </c>
@@ -6118,7 +6163,9 @@
       <c r="M57" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N57" s="34"/>
+      <c r="N57" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O57" s="34" t="s">
         <v>139</v>
       </c>
@@ -6157,7 +6204,9 @@
       <c r="E58" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="F58" s="33"/>
+      <c r="F58" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G58" s="33" t="s">
         <v>163</v>
       </c>
@@ -6175,7 +6224,9 @@
       <c r="M58" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N58" s="34"/>
+      <c r="N58" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O58" s="34" t="s">
         <v>139</v>
       </c>
@@ -6214,7 +6265,9 @@
       <c r="E59" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="F59" s="33"/>
+      <c r="F59" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G59" s="33" t="s">
         <v>168</v>
       </c>
@@ -6232,7 +6285,9 @@
       <c r="M59" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N59" s="34"/>
+      <c r="N59" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O59" s="34" t="s">
         <v>139</v>
       </c>
@@ -6271,7 +6326,9 @@
       <c r="E60" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="F60" s="33"/>
+      <c r="F60" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G60" s="33" t="s">
         <v>173</v>
       </c>
@@ -6289,7 +6346,9 @@
       <c r="M60" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N60" s="34"/>
+      <c r="N60" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O60" s="34" t="s">
         <v>139</v>
       </c>
@@ -6328,7 +6387,9 @@
       <c r="E61" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="33"/>
+      <c r="F61" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G61" s="33" t="s">
         <v>178</v>
       </c>
@@ -6346,7 +6407,9 @@
       <c r="M61" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N61" s="34"/>
+      <c r="N61" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O61" s="34" t="s">
         <v>139</v>
       </c>
@@ -6385,7 +6448,9 @@
       <c r="E62" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="F62" s="33"/>
+      <c r="F62" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G62" s="33" t="s">
         <v>183</v>
       </c>
@@ -6403,7 +6468,9 @@
       <c r="M62" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N62" s="34"/>
+      <c r="N62" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O62" s="34" t="s">
         <v>139</v>
       </c>
@@ -6442,7 +6509,9 @@
       <c r="E63" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="F63" s="33"/>
+      <c r="F63" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G63" s="33" t="s">
         <v>188</v>
       </c>
@@ -6460,7 +6529,9 @@
       <c r="M63" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N63" s="34"/>
+      <c r="N63" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O63" s="34" t="s">
         <v>139</v>
       </c>
@@ -6499,7 +6570,9 @@
       <c r="E64" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="33"/>
+      <c r="F64" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G64" s="33" t="s">
         <v>193</v>
       </c>
@@ -6517,7 +6590,9 @@
       <c r="M64" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N64" s="34"/>
+      <c r="N64" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O64" s="34" t="s">
         <v>139</v>
       </c>
@@ -6556,7 +6631,9 @@
       <c r="E65" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="F65" s="33"/>
+      <c r="F65" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G65" s="33" t="s">
         <v>198</v>
       </c>
@@ -6574,7 +6651,9 @@
       <c r="M65" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N65" s="34"/>
+      <c r="N65" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O65" s="34" t="s">
         <v>139</v>
       </c>
@@ -6613,7 +6692,9 @@
       <c r="E66" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="F66" s="33"/>
+      <c r="F66" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G66" s="33" t="s">
         <v>203</v>
       </c>
@@ -6631,7 +6712,9 @@
       <c r="M66" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N66" s="34"/>
+      <c r="N66" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O66" s="34" t="s">
         <v>139</v>
       </c>
@@ -6670,7 +6753,9 @@
       <c r="E67" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="33"/>
+      <c r="F67" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G67" s="33" t="s">
         <v>208</v>
       </c>
@@ -6688,7 +6773,9 @@
       <c r="M67" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N67" s="34"/>
+      <c r="N67" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O67" s="34" t="s">
         <v>139</v>
       </c>
@@ -6727,7 +6814,9 @@
       <c r="E68" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F68" s="33"/>
+      <c r="F68" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G68" s="33" t="s">
         <v>213</v>
       </c>
@@ -6745,7 +6834,9 @@
       <c r="M68" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N68" s="34"/>
+      <c r="N68" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O68" s="34" t="s">
         <v>139</v>
       </c>
@@ -10854,7 +10945,9 @@
       <c r="E179" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="F179" s="30"/>
+      <c r="F179" s="41" t="n">
+        <v>45918</v>
+      </c>
       <c r="G179" s="30" t="s">
         <v>437</v>
       </c>
@@ -10872,7 +10965,9 @@
       <c r="M179" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N179" s="34"/>
+      <c r="N179" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O179" s="30" t="s">
         <v>139</v>
       </c>
@@ -11207,7 +11302,9 @@
       <c r="E188" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="F188" s="33"/>
+      <c r="F188" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G188" s="33" t="s">
         <v>458</v>
       </c>
@@ -11252,7 +11349,9 @@
       <c r="E189" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="F189" s="33"/>
+      <c r="F189" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G189" s="33" t="s">
         <v>463</v>
       </c>
@@ -11334,7 +11433,9 @@
       <c r="E191" s="31" t="s">
         <v>469</v>
       </c>
-      <c r="F191" s="33"/>
+      <c r="F191" s="40" t="n">
+        <v>45918</v>
+      </c>
       <c r="G191" s="33" t="s">
         <v>470</v>
       </c>
@@ -11352,7 +11453,9 @@
       <c r="M191" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N191" s="34"/>
+      <c r="N191" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="O191" s="34" t="s">
         <v>139</v>
       </c>
@@ -15582,7 +15685,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>483</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -15594,158 +15697,158 @@
       <c r="D1" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="44" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="47" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="46" t="s">
         <v>491</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="47" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="48" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="47" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="48" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="48" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="48" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="48" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="45" t="s">
         <v>505</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="49" t="s">
         <v>506</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="47" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="46" t="s">
         <v>508</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="48" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="48"/>
+      <c r="D12" s="50"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="48"/>
+      <c r="D13" s="50"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#HELIOSISTEMI/HelioSistemiSrls/Lido_fse/0.9/report-checklist.xlsx
+++ b/GATEWAY/A1#111#HELIOSISTEMI/HelioSistemiSrls/Lido_fse/0.9/report-checklist.xlsx
@@ -1766,13 +1766,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-09-18T15:36:48Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a11b6c405bd4b3442929cfb32d46d7d5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.265ec26daa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-09-29T07:26:28Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f17cc6a9f3bbd91b592f066650720372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.3adb845845^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -1782,13 +1782,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-09-18T15:39:32Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3b35dab5e22d33a1b0be3ee1634553f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.aba72c3186^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-09-29T07:29:34Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e2017a823ac717063e2d0764067faeb7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.d39bb85c2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT19_KO</t>
@@ -1942,7 +1942,7 @@
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2040,12 +2040,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2242,7 +2236,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2403,11 +2397,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2415,7 +2405,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2771,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3921,11 +3911,11 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F65" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
-      <selection pane="bottomRight" activeCell="H54" activeCellId="0" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="K189" activeCellId="0" sqref="K189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4696,7 +4686,7 @@
       <c r="E22" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="40" t="n">
+      <c r="F22" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G22" s="33" t="s">
@@ -5899,7 +5889,7 @@
       <c r="E53" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="F53" s="40" t="n">
+      <c r="F53" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G53" s="33" t="s">
@@ -5960,7 +5950,7 @@
       <c r="E54" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="F54" s="40" t="n">
+      <c r="F54" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G54" s="33" t="s">
@@ -6021,7 +6011,7 @@
       <c r="E55" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="F55" s="40" t="n">
+      <c r="F55" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G55" s="33" t="s">
@@ -6082,7 +6072,7 @@
       <c r="E56" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="F56" s="40" t="n">
+      <c r="F56" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G56" s="33" t="s">
@@ -6143,7 +6133,7 @@
       <c r="E57" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="F57" s="40" t="n">
+      <c r="F57" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G57" s="33" t="s">
@@ -6204,7 +6194,7 @@
       <c r="E58" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="F58" s="40" t="n">
+      <c r="F58" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G58" s="33" t="s">
@@ -6265,7 +6255,7 @@
       <c r="E59" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="F59" s="40" t="n">
+      <c r="F59" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G59" s="33" t="s">
@@ -6326,7 +6316,7 @@
       <c r="E60" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="F60" s="40" t="n">
+      <c r="F60" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G60" s="33" t="s">
@@ -6387,7 +6377,7 @@
       <c r="E61" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="40" t="n">
+      <c r="F61" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G61" s="33" t="s">
@@ -6448,7 +6438,7 @@
       <c r="E62" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="F62" s="40" t="n">
+      <c r="F62" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G62" s="33" t="s">
@@ -6509,7 +6499,7 @@
       <c r="E63" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="F63" s="40" t="n">
+      <c r="F63" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G63" s="33" t="s">
@@ -6570,7 +6560,7 @@
       <c r="E64" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="40" t="n">
+      <c r="F64" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G64" s="33" t="s">
@@ -6631,7 +6621,7 @@
       <c r="E65" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="F65" s="40" t="n">
+      <c r="F65" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G65" s="33" t="s">
@@ -6692,7 +6682,7 @@
       <c r="E66" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="F66" s="40" t="n">
+      <c r="F66" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G66" s="33" t="s">
@@ -6753,7 +6743,7 @@
       <c r="E67" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="40" t="n">
+      <c r="F67" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G67" s="33" t="s">
@@ -6814,7 +6804,7 @@
       <c r="E68" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F68" s="40" t="n">
+      <c r="F68" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G68" s="33" t="s">
@@ -10945,7 +10935,7 @@
       <c r="E179" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="F179" s="41" t="n">
+      <c r="F179" s="40" t="n">
         <v>45918</v>
       </c>
       <c r="G179" s="30" t="s">
@@ -11302,8 +11292,8 @@
       <c r="E188" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="F188" s="40" t="n">
-        <v>45918</v>
+      <c r="F188" s="33" t="n">
+        <v>45929</v>
       </c>
       <c r="G188" s="33" t="s">
         <v>458</v>
@@ -11349,8 +11339,8 @@
       <c r="E189" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="F189" s="40" t="n">
-        <v>45918</v>
+      <c r="F189" s="33" t="n">
+        <v>45929</v>
       </c>
       <c r="G189" s="33" t="s">
         <v>463</v>
@@ -11433,7 +11423,7 @@
       <c r="E191" s="31" t="s">
         <v>469</v>
       </c>
-      <c r="F191" s="40" t="n">
+      <c r="F191" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G191" s="33" t="s">
@@ -15685,7 +15675,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>483</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -15697,158 +15687,158 @@
       <c r="D1" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="47" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>495</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>497</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="47" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>503</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="47" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>374</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>508</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="47" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="50"/>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="50"/>
+      <c r="D13" s="49"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#HELIOSISTEMI/HelioSistemiSrls/Lido_fse/0.9/report-checklist.xlsx
+++ b/GATEWAY/A1#111#HELIOSISTEMI/HelioSistemiSrls/Lido_fse/0.9/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="513">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -295,6 +295,22 @@
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondizioni:
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
   </si>
   <si>
     <r>
@@ -347,15 +363,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSS</t>
   </si>
   <si>
@@ -1782,13 +1789,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-09-29T07:29:34Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e2017a823ac717063e2d0764067faeb7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.d39bb85c2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-03T13:31:35Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e04e9c07391bc5b59f77acb3e82431ae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.1461b2e74b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT19_KO</t>
@@ -2761,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3911,11 +3918,11 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
-      <selection pane="bottomRight" activeCell="K189" activeCellId="0" sqref="K189"/>
+      <selection pane="bottomLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="I198" activeCellId="0" sqref="I198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4290,7 +4297,7 @@
         <v>56</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
@@ -4321,13 +4328,13 @@
         <v>47</v>
       </c>
       <c r="C13" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>57</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -4358,51 +4365,51 @@
         <v>47</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F14" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N14" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O14" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="P14" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="Q14" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S14" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T14" s="34"/>
       <c r="U14" s="35"/>
@@ -4419,13 +4426,13 @@
         <v>47</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -4456,13 +4463,13 @@
         <v>47</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
@@ -4493,13 +4500,13 @@
         <v>47</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
@@ -4530,13 +4537,13 @@
         <v>47</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -4570,10 +4577,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -4607,10 +4614,10 @@
         <v>55</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>78</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>77</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -4641,13 +4648,13 @@
         <v>47</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -4678,51 +4685,51 @@
         <v>47</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="Q22" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S22" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T22" s="34"/>
       <c r="U22" s="35"/>
@@ -4739,13 +4746,13 @@
         <v>47</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -4776,13 +4783,13 @@
         <v>47</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -4813,13 +4820,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
@@ -4850,13 +4857,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
@@ -4890,10 +4897,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -4911,7 +4918,7 @@
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
       <c r="U27" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V27" s="36"/>
       <c r="W27" s="34" t="s">
@@ -4929,10 +4936,10 @@
         <v>55</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="31" t="s">
         <v>89</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>88</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
@@ -4950,7 +4957,7 @@
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
       <c r="U28" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V28" s="36"/>
       <c r="W28" s="34" t="s">
@@ -4965,13 +4972,13 @@
         <v>47</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -4989,7 +4996,7 @@
       <c r="S29" s="34"/>
       <c r="T29" s="34"/>
       <c r="U29" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V29" s="36"/>
       <c r="W29" s="34" t="s">
@@ -5004,47 +5011,47 @@
         <v>47</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="39"/>
       <c r="J30" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
       <c r="M30" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N30" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P30" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q30" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R30" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S30" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T30" s="34"/>
       <c r="U30" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V30" s="36"/>
       <c r="W30" s="34" t="s">
@@ -5059,13 +5066,13 @@
         <v>47</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -5083,7 +5090,7 @@
       <c r="S31" s="34"/>
       <c r="T31" s="34"/>
       <c r="U31" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V31" s="36"/>
       <c r="W31" s="34" t="s">
@@ -5098,13 +5105,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -5122,7 +5129,7 @@
       <c r="S32" s="34"/>
       <c r="T32" s="34"/>
       <c r="U32" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V32" s="36"/>
       <c r="W32" s="34" t="s">
@@ -5137,13 +5144,13 @@
         <v>47</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
@@ -5161,7 +5168,7 @@
       <c r="S33" s="34"/>
       <c r="T33" s="34"/>
       <c r="U33" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V33" s="36"/>
       <c r="W33" s="34" t="s">
@@ -5176,13 +5183,13 @@
         <v>47</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -5200,7 +5207,7 @@
       <c r="S34" s="34"/>
       <c r="T34" s="34"/>
       <c r="U34" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V34" s="36"/>
       <c r="W34" s="34" t="s">
@@ -5218,10 +5225,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -5255,10 +5262,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -5292,10 +5299,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -5329,10 +5336,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -5366,10 +5373,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -5403,10 +5410,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -5440,10 +5447,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -5477,10 +5484,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -5514,10 +5521,10 @@
         <v>55</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -5551,10 +5558,10 @@
         <v>55</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -5588,10 +5595,10 @@
         <v>55</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -5625,10 +5632,10 @@
         <v>55</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -5662,10 +5669,10 @@
         <v>55</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -5699,10 +5706,10 @@
         <v>55</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -5736,10 +5743,10 @@
         <v>55</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -5773,10 +5780,10 @@
         <v>55</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -5810,10 +5817,10 @@
         <v>55</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -5847,10 +5854,10 @@
         <v>55</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -5881,51 +5888,51 @@
         <v>47</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F53" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J53" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
       <c r="M53" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N53" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P53" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q53" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R53" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S53" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T53" s="34"/>
       <c r="U53" s="35"/>
@@ -5942,51 +5949,51 @@
         <v>47</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F54" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H54" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J54" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
       <c r="M54" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N54" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P54" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q54" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R54" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S54" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T54" s="34"/>
       <c r="U54" s="35"/>
@@ -6003,51 +6010,51 @@
         <v>47</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F55" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I55" s="39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J55" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
       <c r="M55" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N55" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P55" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q55" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R55" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S55" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T55" s="34"/>
       <c r="U55" s="35"/>
@@ -6064,51 +6071,51 @@
         <v>47</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F56" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I56" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J56" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K56" s="34"/>
       <c r="L56" s="34"/>
       <c r="M56" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N56" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P56" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q56" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R56" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S56" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T56" s="34"/>
       <c r="U56" s="35"/>
@@ -6125,51 +6132,51 @@
         <v>47</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F57" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I57" s="39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J57" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K57" s="34"/>
       <c r="L57" s="34"/>
       <c r="M57" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N57" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O57" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P57" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q57" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R57" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S57" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T57" s="34"/>
       <c r="U57" s="35"/>
@@ -6186,51 +6193,51 @@
         <v>47</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F58" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I58" s="39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J58" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
       <c r="M58" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N58" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O58" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P58" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q58" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R58" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S58" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T58" s="34"/>
       <c r="U58" s="35"/>
@@ -6247,51 +6254,51 @@
         <v>47</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F59" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I59" s="39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J59" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
       <c r="M59" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N59" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O59" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P59" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q59" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R59" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S59" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T59" s="34"/>
       <c r="U59" s="35"/>
@@ -6308,51 +6315,51 @@
         <v>47</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F60" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I60" s="39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J60" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K60" s="34"/>
       <c r="L60" s="34"/>
       <c r="M60" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N60" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O60" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P60" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q60" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R60" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S60" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T60" s="34"/>
       <c r="U60" s="35"/>
@@ -6369,51 +6376,51 @@
         <v>47</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F61" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J61" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K61" s="34"/>
       <c r="L61" s="34"/>
       <c r="M61" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N61" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O61" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P61" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q61" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R61" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S61" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T61" s="34"/>
       <c r="U61" s="35"/>
@@ -6430,51 +6437,51 @@
         <v>47</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F62" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H62" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I62" s="39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J62" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K62" s="34"/>
       <c r="L62" s="34"/>
       <c r="M62" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N62" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O62" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P62" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q62" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R62" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S62" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T62" s="34"/>
       <c r="U62" s="35"/>
@@ -6491,51 +6498,51 @@
         <v>47</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F63" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I63" s="39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J63" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
       <c r="M63" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N63" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O63" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P63" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q63" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R63" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S63" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T63" s="34"/>
       <c r="U63" s="35"/>
@@ -6552,51 +6559,51 @@
         <v>47</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F64" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I64" s="39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J64" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
       <c r="M64" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N64" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O64" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P64" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q64" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R64" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S64" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T64" s="34"/>
       <c r="U64" s="35"/>
@@ -6613,51 +6620,51 @@
         <v>47</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F65" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I65" s="39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J65" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
       <c r="M65" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N65" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O65" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P65" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q65" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R65" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S65" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T65" s="34"/>
       <c r="U65" s="35"/>
@@ -6674,51 +6681,51 @@
         <v>47</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F66" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J66" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
       <c r="M66" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N66" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O66" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P66" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q66" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R66" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S66" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T66" s="34"/>
       <c r="U66" s="35"/>
@@ -6735,51 +6742,51 @@
         <v>47</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F67" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G67" s="33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J67" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
       <c r="M67" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N67" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O67" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P67" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q67" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R67" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S67" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T67" s="34"/>
       <c r="U67" s="35"/>
@@ -6796,51 +6803,51 @@
         <v>47</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F68" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G68" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I68" s="39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J68" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
       <c r="M68" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N68" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O68" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P68" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q68" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R68" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S68" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T68" s="34"/>
       <c r="U68" s="35"/>
@@ -6857,13 +6864,13 @@
         <v>47</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -6894,13 +6901,13 @@
         <v>47</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -6931,13 +6938,13 @@
         <v>47</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -6968,13 +6975,13 @@
         <v>47</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -7005,13 +7012,13 @@
         <v>47</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -7042,13 +7049,13 @@
         <v>47</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -7079,13 +7086,13 @@
         <v>47</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -7116,13 +7123,13 @@
         <v>47</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
@@ -7153,13 +7160,13 @@
         <v>47</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
@@ -7190,13 +7197,13 @@
         <v>47</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -7227,13 +7234,13 @@
         <v>47</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -7264,13 +7271,13 @@
         <v>47</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
@@ -7301,13 +7308,13 @@
         <v>47</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -7338,13 +7345,13 @@
         <v>47</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -7375,13 +7382,13 @@
         <v>47</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -7412,13 +7419,13 @@
         <v>47</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -7449,13 +7456,13 @@
         <v>47</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -7486,13 +7493,13 @@
         <v>47</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -7523,13 +7530,13 @@
         <v>47</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
@@ -7560,13 +7567,13 @@
         <v>47</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
@@ -7597,13 +7604,13 @@
         <v>47</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
@@ -7634,13 +7641,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
@@ -7671,13 +7678,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
@@ -7708,13 +7715,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -7745,13 +7752,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -7782,13 +7789,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -7819,13 +7826,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -7856,13 +7863,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -7893,13 +7900,13 @@
         <v>47</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -7930,13 +7937,13 @@
         <v>47</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -7967,13 +7974,13 @@
         <v>47</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
@@ -8004,13 +8011,13 @@
         <v>47</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -8041,13 +8048,13 @@
         <v>47</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -8078,13 +8085,13 @@
         <v>47</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -8115,13 +8122,13 @@
         <v>47</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
@@ -8152,13 +8159,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -8189,13 +8196,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
@@ -8226,13 +8233,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -8263,13 +8270,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
@@ -8300,13 +8307,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
@@ -8337,13 +8344,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -8374,13 +8381,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
@@ -8411,13 +8418,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -8448,13 +8455,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
@@ -8485,13 +8492,13 @@
         <v>47</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -8522,13 +8529,13 @@
         <v>47</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
@@ -8559,13 +8566,13 @@
         <v>47</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -8596,13 +8603,13 @@
         <v>47</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
@@ -8633,13 +8640,13 @@
         <v>47</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
@@ -8670,13 +8677,13 @@
         <v>47</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
@@ -8707,13 +8714,13 @@
         <v>47</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -8744,13 +8751,13 @@
         <v>47</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
@@ -8781,13 +8788,13 @@
         <v>47</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
@@ -8818,13 +8825,13 @@
         <v>47</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
@@ -8855,13 +8862,13 @@
         <v>47</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
@@ -8892,13 +8899,13 @@
         <v>47</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
@@ -8929,13 +8936,13 @@
         <v>47</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -8966,13 +8973,13 @@
         <v>47</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
@@ -9003,13 +9010,13 @@
         <v>47</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
@@ -9040,13 +9047,13 @@
         <v>47</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
@@ -9077,13 +9084,13 @@
         <v>47</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
@@ -9114,13 +9121,13 @@
         <v>47</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
@@ -9151,13 +9158,13 @@
         <v>47</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
@@ -9188,13 +9195,13 @@
         <v>47</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -9225,13 +9232,13 @@
         <v>47</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -9262,13 +9269,13 @@
         <v>47</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -9299,13 +9306,13 @@
         <v>47</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
@@ -9336,13 +9343,13 @@
         <v>47</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
@@ -9373,13 +9380,13 @@
         <v>47</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
@@ -9410,13 +9417,13 @@
         <v>47</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
@@ -9447,13 +9454,13 @@
         <v>47</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
@@ -9484,13 +9491,13 @@
         <v>47</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -9521,13 +9528,13 @@
         <v>47</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
@@ -9558,13 +9565,13 @@
         <v>47</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
@@ -9595,13 +9602,13 @@
         <v>47</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
@@ -9632,13 +9639,13 @@
         <v>47</v>
       </c>
       <c r="C144" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
@@ -9669,13 +9676,13 @@
         <v>47</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
@@ -9709,10 +9716,10 @@
         <v>48</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
@@ -9746,10 +9753,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
@@ -9780,13 +9787,13 @@
         <v>47</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
@@ -9817,13 +9824,13 @@
         <v>47</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
@@ -9854,13 +9861,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
@@ -9891,13 +9898,13 @@
         <v>47</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E151" s="38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F151" s="33"/>
       <c r="G151" s="33"/>
@@ -9928,13 +9935,13 @@
         <v>47</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E152" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="33"/>
@@ -9965,13 +9972,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
@@ -10002,13 +10009,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
@@ -10039,13 +10046,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
@@ -10076,13 +10083,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
@@ -10113,13 +10120,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
@@ -10150,13 +10157,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
@@ -10187,13 +10194,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
@@ -10224,13 +10231,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="33"/>
@@ -10261,13 +10268,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="33"/>
@@ -10298,13 +10305,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="33"/>
@@ -10335,13 +10342,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
@@ -10372,13 +10379,13 @@
         <v>47</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="33"/>
@@ -10409,13 +10416,13 @@
         <v>47</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="33"/>
@@ -10446,13 +10453,13 @@
         <v>47</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="33"/>
@@ -10483,13 +10490,13 @@
         <v>47</v>
       </c>
       <c r="C167" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
@@ -10523,10 +10530,10 @@
         <v>55</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
@@ -10560,10 +10567,10 @@
         <v>55</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -10597,10 +10604,10 @@
         <v>48</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -10631,13 +10638,13 @@
         <v>47</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
@@ -10668,13 +10675,13 @@
         <v>47</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
@@ -10705,13 +10712,13 @@
         <v>47</v>
       </c>
       <c r="C173" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
@@ -10742,13 +10749,13 @@
         <v>47</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
@@ -10779,13 +10786,13 @@
         <v>47</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
@@ -10816,13 +10823,13 @@
         <v>47</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
@@ -10853,13 +10860,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
@@ -10890,13 +10897,13 @@
         <v>47</v>
       </c>
       <c r="C178" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F178" s="30"/>
       <c r="G178" s="30"/>
@@ -10927,51 +10934,51 @@
         <v>47</v>
       </c>
       <c r="C179" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D179" s="30" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F179" s="40" t="n">
         <v>45918</v>
       </c>
       <c r="G179" s="30" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H179" s="30" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I179" s="30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J179" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K179" s="34"/>
       <c r="L179" s="30"/>
       <c r="M179" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N179" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O179" s="30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P179" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q179" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R179" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S179" s="30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T179" s="34"/>
       <c r="U179" s="30"/>
@@ -10988,13 +10995,13 @@
         <v>47</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -11025,13 +11032,13 @@
         <v>47</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F181" s="30"/>
       <c r="G181" s="30"/>
@@ -11062,13 +11069,13 @@
         <v>47</v>
       </c>
       <c r="C182" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
@@ -11102,10 +11109,10 @@
         <v>48</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="30"/>
@@ -11139,10 +11146,10 @@
         <v>55</v>
       </c>
       <c r="D184" s="30" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F184" s="30"/>
       <c r="G184" s="30"/>
@@ -11173,13 +11180,13 @@
         <v>47</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="30"/>
@@ -11210,13 +11217,13 @@
         <v>47</v>
       </c>
       <c r="C186" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F186" s="30"/>
       <c r="G186" s="30"/>
@@ -11247,13 +11254,13 @@
         <v>47</v>
       </c>
       <c r="C187" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F187" s="30"/>
       <c r="G187" s="30"/>
@@ -11284,28 +11291,28 @@
         <v>47</v>
       </c>
       <c r="C188" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F188" s="33" t="n">
         <v>45929</v>
       </c>
       <c r="G188" s="33" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H188" s="33" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I188" s="39" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J188" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K188" s="34"/>
       <c r="L188" s="34"/>
@@ -11331,28 +11338,28 @@
         <v>47</v>
       </c>
       <c r="C189" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F189" s="33" t="n">
-        <v>45929</v>
+        <v>45933</v>
       </c>
       <c r="G189" s="33" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H189" s="33" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I189" s="39" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J189" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K189" s="34"/>
       <c r="L189" s="34"/>
@@ -11381,10 +11388,10 @@
         <v>48</v>
       </c>
       <c r="D190" s="37" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
@@ -11415,51 +11422,51 @@
         <v>47</v>
       </c>
       <c r="C191" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F191" s="33" t="n">
         <v>45918</v>
       </c>
       <c r="G191" s="33" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H191" s="33" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I191" s="39" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J191" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K191" s="34"/>
       <c r="L191" s="34"/>
       <c r="M191" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N191" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O191" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P191" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q191" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R191" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S191" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T191" s="34"/>
       <c r="U191" s="35"/>
@@ -11476,13 +11483,13 @@
         <v>47</v>
       </c>
       <c r="C192" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
@@ -15601,42 +15608,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -15676,22 +15683,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15699,13 +15706,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15713,125 +15720,125 @@
         <v>55</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="44" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16828,18 +16835,18 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
